--- a/biology/Botanique/Hakea_dactyloides/Hakea_dactyloides.xlsx
+++ b/biology/Botanique/Hakea_dactyloides/Hakea_dactyloides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hakea adactyloides est une espèce de plantes à fleurs de la famille des Proteaceae. C'est un arbrisseau du genre Hakea originaire des zones forestières des régions côtières du sud-est de l'Australie (du sud du Queensland au nord du Victoria).
 Elle mesure de 1 à 3 m de haut. Elle a des fleurs blanches ou rose pâle disposées en grappes axillaires et qui apparaissent du printemps au début de l'été. Le fruit est une capsule ligneuse d'environ 2 à 3 cm de long contenant deux graines ailées. Les feuilles lancéolées font jusqu'à 10 cm de long sur 15 à 20 mm de large.
@@ -512,7 +524,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>http://anpsa.org.au/h-dac.html
 http://plantnet.rbgsyd.nsw.gov.au/cgi-bin/NSWfl.pl?page=nswfl&amp;lvl=sp&amp;name=Hakea~dactyloides</t>
